--- a/swiftboot-sheet/src/test/resources/imp/import.xlsx
+++ b/swiftboot-sheet/src/test/resources/imp/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t xml:space="preserve">a1</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">5ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 3</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,10 +185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,14 +285,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -307,12 +378,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
